--- a/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
+++ b/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
   <si>
     <t>PERIOD</t>
   </si>
@@ -459,6 +459,9 @@
   </si>
   <si>
     <t>UT(0-1-35)</t>
+  </si>
+  <si>
+    <t>12/18,19/2023</t>
   </si>
 </sst>
 </file>
@@ -846,17 +849,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -866,6 +866,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,9 +1760,9 @@
   <dimension ref="A2:K238"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A85" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,14 +1792,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1807,14 +1810,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1827,16 +1830,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1862,18 +1865,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -1920,7 +1923,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>62.652000000000001</v>
+        <v>65.152000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1930,7 +1933,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4454,13 +4457,15 @@
         <v>45231</v>
       </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
@@ -4471,19 +4476,27 @@
       <c r="A120" s="40">
         <v>45261</v>
       </c>
-      <c r="B120" s="20"/>
-      <c r="C120" s="13"/>
+      <c r="B120" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="C120" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D120" s="39"/>
       <c r="E120" s="9"/>
       <c r="F120" s="20"/>
-      <c r="G120" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H120" s="39"/>
+      <c r="G120" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H120" s="39">
+        <v>2</v>
+      </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
-      <c r="K120" s="20"/>
+      <c r="K120" s="20" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
@@ -6465,17 +6478,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6543,14 +6556,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6561,14 +6574,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6581,16 +6594,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6616,18 +6629,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
+++ b/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -462,6 +462,9 @@
   </si>
   <si>
     <t>12/18,19/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -849,14 +852,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -866,9 +872,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,8 +1400,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K238" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K238"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K239" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K239"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
@@ -1757,12 +1760,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K238"/>
+  <dimension ref="A2:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1792,14 +1795,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -1810,14 +1813,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -1830,16 +1833,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -1865,18 +1868,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -4499,8 +4502,8 @@
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
-        <v>45292</v>
+      <c r="A121" s="48" t="s">
+        <v>142</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -4518,9 +4521,11 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B122" s="20"/>
+        <v>45292</v>
+      </c>
+      <c r="B122" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
@@ -4532,11 +4537,13 @@
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
-      <c r="K122" s="20"/>
+      <c r="K122" s="49">
+        <v>45301</v>
+      </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -4554,7 +4561,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -4572,7 +4579,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4590,7 +4597,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4608,7 +4615,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4626,7 +4633,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4644,7 +4651,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4662,7 +4669,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4680,7 +4687,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4698,7 +4705,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4716,7 +4723,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4734,7 +4741,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4752,7 +4759,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4770,7 +4777,7 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4788,7 +4795,7 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4806,7 +4813,7 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4824,7 +4831,7 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4842,7 +4849,7 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4860,7 +4867,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4878,7 +4885,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4896,7 +4903,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4914,7 +4921,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4932,7 +4939,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4950,7 +4957,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4968,7 +4975,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4986,7 +4993,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5004,7 +5011,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5022,7 +5029,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5040,7 +5047,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5058,7 +5065,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5076,7 +5083,7 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5094,7 +5101,7 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5112,7 +5119,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5130,7 +5137,7 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5148,7 +5155,7 @@
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5166,7 +5173,7 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5184,7 +5191,7 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5202,7 +5209,7 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5220,7 +5227,7 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5238,7 +5245,7 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5256,7 +5263,7 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5274,7 +5281,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5292,7 +5299,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5309,7 +5316,9 @@
       <c r="K165" s="20"/>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A166" s="40"/>
+      <c r="A166" s="40">
+        <v>46631</v>
+      </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
       <c r="D166" s="39"/>
@@ -6461,34 +6470,50 @@
       <c r="K237" s="20"/>
     </row>
     <row r="238" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
-      <c r="B238" s="15"/>
-      <c r="C238" s="42"/>
-      <c r="D238" s="43"/>
+      <c r="A238" s="40"/>
+      <c r="B238" s="20"/>
+      <c r="C238" s="13"/>
+      <c r="D238" s="39"/>
       <c r="E238" s="9"/>
-      <c r="F238" s="15"/>
-      <c r="G238" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H238" s="43"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H238" s="39"/>
       <c r="I238" s="9"/>
-      <c r="J238" s="12"/>
-      <c r="K238" s="15"/>
+      <c r="J238" s="11"/>
+      <c r="K238" s="20"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="41"/>
+      <c r="B239" s="15"/>
+      <c r="C239" s="42"/>
+      <c r="D239" s="43"/>
+      <c r="E239" s="9"/>
+      <c r="F239" s="15"/>
+      <c r="G239" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="43"/>
+      <c r="I239" s="9"/>
+      <c r="J239" s="12"/>
+      <c r="K239" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
@@ -6556,14 +6581,14 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
@@ -6574,14 +6599,14 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
@@ -6594,16 +6619,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -6629,18 +6654,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">

--- a/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
+++ b/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07EA86-0C66-47CA-9E90-FB4CB6B699A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="45" windowWidth="23010" windowHeight="12315"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -26,7 +27,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -470,7 +471,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -852,17 +853,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -872,6 +870,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1383,7 +1384,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1400,26 +1401,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K239" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K239"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K239" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K239" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1431,25 +1432,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1756,34 +1757,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K239"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A100" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A112" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1795,16 +1796,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1813,16 +1814,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1833,18 +1834,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1852,7 +1853,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1865,24 +1866,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1917,7 +1918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1926,7 +1927,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>65.152000000000001</v>
+        <v>65.402000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1936,12 +1937,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>8</v>
+        <v>9.25</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1963,7 +1964,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1983,7 +1984,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2009,7 +2010,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -2031,7 +2032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -2051,7 +2052,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -2071,7 +2072,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2097,7 +2098,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2119,7 +2120,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2145,7 +2146,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2171,7 +2172,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2193,7 +2194,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>47</v>
@@ -2241,7 +2242,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -2267,7 +2268,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -2293,7 +2294,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -2315,7 +2316,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>47</v>
@@ -2337,7 +2338,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -2363,7 +2364,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>47</v>
@@ -2385,7 +2386,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -2407,7 +2408,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2427,7 +2428,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>61</v>
       </c>
@@ -2445,7 +2446,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43466</v>
       </c>
@@ -2471,7 +2472,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -2497,7 +2498,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>64</v>
@@ -2519,7 +2520,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -2541,7 +2542,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -2619,7 +2620,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -2641,7 +2642,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>69</v>
@@ -2663,7 +2664,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43617</v>
       </c>
@@ -2689,7 +2690,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43647</v>
       </c>
@@ -2715,7 +2716,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43313</v>
       </c>
@@ -2741,7 +2742,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>47</v>
@@ -2763,7 +2764,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>69</v>
@@ -2785,7 +2786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>43709</v>
       </c>
@@ -2811,7 +2812,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -2837,7 +2838,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -2859,7 +2860,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>74</v>
@@ -2881,7 +2882,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2901,7 +2902,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -2949,7 +2950,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>78</v>
       </c>
@@ -2967,7 +2968,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>43831</v>
       </c>
@@ -2987,7 +2988,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>43862</v>
       </c>
@@ -3013,7 +3014,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>43891</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -3061,7 +3062,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>43922</v>
       </c>
@@ -3081,7 +3082,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>43952</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>43983</v>
       </c>
@@ -3133,7 +3134,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
@@ -3155,7 +3156,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3177,7 +3178,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -3203,7 +3204,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -3223,7 +3224,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -3249,7 +3250,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>47</v>
@@ -3271,7 +3272,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>66</v>
@@ -3293,7 +3294,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -3319,7 +3320,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44166</v>
       </c>
@@ -3369,7 +3370,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>66</v>
@@ -3391,7 +3392,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="48" t="s">
         <v>86</v>
       </c>
@@ -3409,7 +3410,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -3433,7 +3434,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -3459,7 +3460,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>69</v>
@@ -3481,7 +3482,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44256</v>
       </c>
@@ -3507,7 +3508,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40">
         <v>44287</v>
       </c>
@@ -3533,7 +3534,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44317</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44348</v>
       </c>
@@ -3585,7 +3586,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="41"/>
       <c r="B80" s="15" t="s">
         <v>47</v>
@@ -3607,7 +3608,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40">
         <v>44378</v>
       </c>
@@ -3627,7 +3628,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>44409</v>
       </c>
@@ -3647,7 +3648,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>44440</v>
       </c>
@@ -3667,7 +3668,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44470</v>
       </c>
@@ -3693,7 +3694,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>56</v>
@@ -3715,7 +3716,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3735,7 +3736,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40">
         <v>44501</v>
       </c>
@@ -3755,7 +3756,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44531</v>
       </c>
@@ -3775,7 +3776,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="48" t="s">
         <v>93</v>
       </c>
@@ -3793,7 +3794,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>44562</v>
       </c>
@@ -3819,7 +3820,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>44593</v>
       </c>
@@ -3839,7 +3840,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -3863,7 +3864,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -3887,7 +3888,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>44682</v>
       </c>
@@ -3911,7 +3912,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>44713</v>
       </c>
@@ -3935,7 +3936,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>44743</v>
       </c>
@@ -3961,7 +3962,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>136</v>
@@ -3981,7 +3982,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>133</v>
@@ -4027,7 +4028,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -4051,7 +4052,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -4075,7 +4076,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>44866</v>
       </c>
@@ -4099,7 +4100,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -4121,7 +4122,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4143,7 +4144,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>47</v>
@@ -4165,7 +4166,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>129</v>
@@ -4185,7 +4186,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="48" t="s">
         <v>106</v>
       </c>
@@ -4203,7 +4204,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>44927</v>
       </c>
@@ -4223,7 +4224,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -4249,7 +4250,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>44986</v>
       </c>
@@ -4275,7 +4276,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45017</v>
       </c>
@@ -4301,7 +4302,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>47</v>
@@ -4323,7 +4324,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45047</v>
       </c>
@@ -4343,7 +4344,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45078</v>
       </c>
@@ -4369,7 +4370,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45108</v>
       </c>
@@ -4389,7 +4390,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45139</v>
       </c>
@@ -4409,7 +4410,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45170</v>
       </c>
@@ -4435,7 +4436,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45200</v>
       </c>
@@ -4455,7 +4456,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45231</v>
       </c>
@@ -4475,7 +4476,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45261</v>
       </c>
@@ -4501,7 +4502,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="48" t="s">
         <v>142</v>
       </c>
@@ -4519,20 +4520,22 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>45292</v>
       </c>
       <c r="B122" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="C122" s="13"/>
+      <c r="C122" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D122" s="39"/>
       <c r="E122" s="9"/>
       <c r="F122" s="20"/>
-      <c r="G122" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G122" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H122" s="39"/>
       <c r="I122" s="9"/>
@@ -4541,13 +4544,17 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>45323</v>
       </c>
-      <c r="B123" s="20"/>
+      <c r="B123" s="20" t="s">
+        <v>56</v>
+      </c>
       <c r="C123" s="13"/>
-      <c r="D123" s="39"/>
+      <c r="D123" s="39">
+        <v>1</v>
+      </c>
       <c r="E123" s="9"/>
       <c r="F123" s="20"/>
       <c r="G123" s="13" t="str">
@@ -4557,9 +4564,11 @@
       <c r="H123" s="39"/>
       <c r="I123" s="9"/>
       <c r="J123" s="11"/>
-      <c r="K123" s="20"/>
-    </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K123" s="49">
+        <v>45334</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>45352</v>
       </c>
@@ -4577,7 +4586,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>45383</v>
       </c>
@@ -4595,7 +4604,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>45413</v>
       </c>
@@ -4613,7 +4622,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>45444</v>
       </c>
@@ -4631,7 +4640,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>45474</v>
       </c>
@@ -4649,7 +4658,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>45505</v>
       </c>
@@ -4667,7 +4676,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>45536</v>
       </c>
@@ -4685,7 +4694,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>45566</v>
       </c>
@@ -4703,7 +4712,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>45597</v>
       </c>
@@ -4721,7 +4730,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>45627</v>
       </c>
@@ -4739,7 +4748,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>45658</v>
       </c>
@@ -4757,7 +4766,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>45689</v>
       </c>
@@ -4775,7 +4784,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>45717</v>
       </c>
@@ -4793,7 +4802,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40">
         <v>45748</v>
       </c>
@@ -4811,7 +4820,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>45778</v>
       </c>
@@ -4829,7 +4838,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40">
         <v>45809</v>
       </c>
@@ -4847,7 +4856,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40">
         <v>45839</v>
       </c>
@@ -4865,7 +4874,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40">
         <v>45870</v>
       </c>
@@ -4883,7 +4892,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>45901</v>
       </c>
@@ -4901,7 +4910,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40">
         <v>45931</v>
       </c>
@@ -4919,7 +4928,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40">
         <v>45962</v>
       </c>
@@ -4937,7 +4946,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40">
         <v>45992</v>
       </c>
@@ -4955,7 +4964,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>46023</v>
       </c>
@@ -4973,7 +4982,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40">
         <v>46054</v>
       </c>
@@ -4991,7 +5000,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40">
         <v>46082</v>
       </c>
@@ -5009,7 +5018,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40">
         <v>46113</v>
       </c>
@@ -5027,7 +5036,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>46143</v>
       </c>
@@ -5045,7 +5054,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>46174</v>
       </c>
@@ -5063,7 +5072,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40">
         <v>46204</v>
       </c>
@@ -5081,7 +5090,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40">
         <v>46235</v>
       </c>
@@ -5099,7 +5108,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>46266</v>
       </c>
@@ -5117,7 +5126,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40">
         <v>46296</v>
       </c>
@@ -5135,7 +5144,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40">
         <v>46327</v>
       </c>
@@ -5153,7 +5162,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40">
         <v>46357</v>
       </c>
@@ -5171,7 +5180,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>46388</v>
       </c>
@@ -5189,7 +5198,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40">
         <v>46419</v>
       </c>
@@ -5207,7 +5216,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40">
         <v>46447</v>
       </c>
@@ -5225,7 +5234,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>46478</v>
       </c>
@@ -5243,7 +5252,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40">
         <v>46508</v>
       </c>
@@ -5261,7 +5270,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40">
         <v>46539</v>
       </c>
@@ -5279,7 +5288,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>46569</v>
       </c>
@@ -5297,7 +5306,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40">
         <v>46600</v>
       </c>
@@ -5315,7 +5324,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40">
         <v>46631</v>
       </c>
@@ -5333,7 +5342,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -5349,7 +5358,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5365,7 +5374,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5381,7 +5390,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5397,7 +5406,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5413,7 +5422,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5429,7 +5438,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5445,7 +5454,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5461,7 +5470,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5477,7 +5486,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5493,7 +5502,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5509,7 +5518,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5525,7 +5534,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5541,7 +5550,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5557,7 +5566,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5573,7 +5582,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5589,7 +5598,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5605,7 +5614,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5621,7 +5630,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5637,7 +5646,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5653,7 +5662,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5669,7 +5678,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5685,7 +5694,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5701,7 +5710,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5717,7 +5726,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5733,7 +5742,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5749,7 +5758,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5765,7 +5774,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5781,7 +5790,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5797,7 +5806,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5813,7 +5822,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5829,7 +5838,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5845,7 +5854,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5861,7 +5870,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5877,7 +5886,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5893,7 +5902,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5909,7 +5918,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5925,7 +5934,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5941,7 +5950,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5957,7 +5966,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5973,7 +5982,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5989,7 +5998,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6005,7 +6014,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6021,7 +6030,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6037,7 +6046,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6053,7 +6062,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -6069,7 +6078,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6085,7 +6094,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6101,7 +6110,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6117,7 +6126,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -6133,7 +6142,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -6149,7 +6158,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6165,7 +6174,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6181,7 +6190,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6197,7 +6206,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6213,7 +6222,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6229,7 +6238,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6245,7 +6254,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6261,7 +6270,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6277,7 +6286,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6293,7 +6302,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6309,7 +6318,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6325,7 +6334,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6341,7 +6350,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6357,7 +6366,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6373,7 +6382,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6389,7 +6398,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6405,7 +6414,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6421,7 +6430,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6437,7 +6446,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6453,7 +6462,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6469,7 +6478,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6485,7 +6494,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="41"/>
       <c r="B239" s="15"/>
       <c r="C239" s="42"/>
@@ -6503,23 +6512,23 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6542,34 +6551,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K51" sqref="A50:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6581,16 +6590,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="53"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6599,16 +6608,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="56"/>
-      <c r="G3" s="52"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="53"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="58"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="J3" s="56"/>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6619,18 +6628,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="52" t="s">
+      <c r="F4" s="53" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="53"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6638,7 +6647,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6651,24 +6660,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="54" t="s">
+      <c r="C7" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54" t="s">
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="54"/>
-      <c r="I7" s="54"/>
-      <c r="J7" s="54"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58"/>
+      <c r="J7" s="58"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6703,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6727,7 +6736,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6749,7 +6758,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6771,7 +6780,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6791,7 +6800,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6813,7 +6822,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6835,7 +6844,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6857,7 +6866,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6879,7 +6888,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6901,7 +6910,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6923,7 +6932,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6943,7 +6952,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6965,7 +6974,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6985,7 +6994,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -7003,7 +7012,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -7025,7 +7034,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -7047,7 +7056,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -7069,7 +7078,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -7087,7 +7096,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -7109,7 +7118,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -7129,7 +7138,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -7151,7 +7160,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -7171,7 +7180,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -7189,7 +7198,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -7211,7 +7220,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7231,7 +7240,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7253,7 +7262,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7273,7 +7282,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7293,7 +7302,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7315,7 +7324,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7337,7 +7346,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7359,7 +7368,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7381,7 +7390,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7401,7 +7410,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7423,7 +7432,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7447,7 +7456,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7469,7 +7478,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7489,7 +7498,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7507,7 +7516,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7529,7 +7538,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7551,7 +7560,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7575,7 +7584,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7595,7 +7604,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7615,7 +7624,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7637,7 +7646,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7661,7 +7670,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7685,7 +7694,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7709,7 +7718,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7733,7 +7742,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>101</v>
@@ -7757,7 +7766,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>130</v>
@@ -7775,7 +7784,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7799,7 +7808,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7821,7 +7830,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7843,7 +7852,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7865,7 +7874,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7889,7 +7898,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7907,7 +7916,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7925,7 +7934,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7947,7 +7956,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7967,7 +7976,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7989,7 +7998,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -8007,7 +8016,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -8031,7 +8040,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -8053,7 +8062,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -8077,7 +8086,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -8099,7 +8108,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -8123,7 +8132,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -8145,7 +8154,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>45078</v>
       </c>
@@ -8169,7 +8178,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -8191,7 +8200,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>45103</v>
       </c>
@@ -8215,7 +8224,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>45108</v>
       </c>
@@ -8239,7 +8248,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>56</v>
@@ -8261,7 +8270,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -8283,7 +8292,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40">
         <v>45139</v>
       </c>
@@ -8307,7 +8316,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>45170</v>
       </c>
@@ -8331,7 +8340,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -8353,7 +8362,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -8377,7 +8386,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>124</v>
@@ -8399,7 +8408,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -8421,7 +8430,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>45231</v>
       </c>
@@ -8445,7 +8454,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8461,7 +8470,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8477,7 +8486,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8493,7 +8502,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8509,7 +8518,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8525,7 +8534,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8541,7 +8550,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8557,7 +8566,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8573,7 +8582,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8589,7 +8598,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8605,7 +8614,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8621,7 +8630,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8637,7 +8646,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8653,7 +8662,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8669,7 +8678,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8685,7 +8694,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8701,7 +8710,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8717,7 +8726,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8733,7 +8742,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8749,7 +8758,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8765,7 +8774,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8781,7 +8790,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8797,7 +8806,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8813,7 +8822,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8829,7 +8838,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8845,7 +8854,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8861,7 +8870,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8877,7 +8886,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8893,7 +8902,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8909,7 +8918,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8925,7 +8934,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8941,7 +8950,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8957,7 +8966,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8973,7 +8982,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8989,7 +8998,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -9005,7 +9014,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -9021,7 +9030,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -9037,7 +9046,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -9053,7 +9062,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -9069,7 +9078,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -9085,7 +9094,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -9101,7 +9110,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -9117,7 +9126,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -9133,7 +9142,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -9149,7 +9158,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -9165,7 +9174,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -9181,7 +9190,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -9197,7 +9206,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -9213,7 +9222,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -9229,7 +9238,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -9245,7 +9254,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -9261,7 +9270,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -9277,7 +9286,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -9293,7 +9302,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -9309,7 +9318,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9325,7 +9334,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9341,7 +9350,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9357,7 +9366,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9373,7 +9382,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9389,7 +9398,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9405,7 +9414,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9421,7 +9430,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9437,7 +9446,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9453,7 +9462,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9469,7 +9478,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9485,7 +9494,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9501,7 +9510,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9517,7 +9526,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9533,7 +9542,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9549,7 +9558,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9565,7 +9574,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9581,7 +9590,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9597,7 +9606,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9613,7 +9622,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9629,7 +9638,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9645,7 +9654,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9661,7 +9670,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9677,7 +9686,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9693,7 +9702,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9709,7 +9718,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9725,7 +9734,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9741,7 +9750,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9757,7 +9766,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9773,7 +9782,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9789,7 +9798,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9805,7 +9814,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9821,7 +9830,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9837,7 +9846,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9853,7 +9862,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9869,7 +9878,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9885,7 +9894,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9901,7 +9910,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9917,7 +9926,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9933,7 +9942,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9949,7 +9958,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9965,7 +9974,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9981,7 +9990,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -9997,7 +10006,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -10013,7 +10022,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -10029,7 +10038,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -10045,7 +10054,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -10061,7 +10070,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -10077,7 +10086,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -10093,7 +10102,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -10109,7 +10118,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -10125,7 +10134,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -10141,7 +10150,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -10172,10 +10181,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10198,28 +10207,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -10232,7 +10241,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10261,7 +10270,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -10289,17 +10298,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10320,7 +10329,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10347,7 +10356,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10373,7 +10382,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10399,7 +10408,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10425,7 +10434,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10451,7 +10460,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10477,7 +10486,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10503,7 +10512,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10529,7 +10538,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10549,7 +10558,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10569,7 +10578,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10589,7 +10598,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10610,7 +10619,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10631,7 +10640,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10652,7 +10661,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10673,7 +10682,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10694,7 +10703,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10715,7 +10724,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10736,7 +10745,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10757,7 +10766,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10778,7 +10787,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10799,7 +10808,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10820,7 +10829,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10841,7 +10850,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10862,7 +10871,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10883,7 +10892,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10904,7 +10913,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10925,7 +10934,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10946,7 +10955,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10967,7 +10976,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10988,7 +10997,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11009,7 +11018,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11018,7 +11027,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11027,7 +11036,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11036,7 +11045,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11045,7 +11054,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11054,7 +11063,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11063,7 +11072,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11072,7 +11081,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11081,7 +11090,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11090,7 +11099,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11099,7 +11108,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11108,7 +11117,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11117,7 +11126,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11126,7 +11135,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11135,7 +11144,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11144,7 +11153,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11153,7 +11162,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11162,7 +11171,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11171,7 +11180,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11180,7 +11189,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11189,7 +11198,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11198,7 +11207,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11207,7 +11216,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11216,7 +11225,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11225,7 +11234,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11234,7 +11243,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11243,7 +11252,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11252,7 +11261,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11261,7 +11270,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11270,7 +11279,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
+++ b/CASUAL/LA GSO/GATPANDAN, MICHAEL.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\dole-pc\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\CASUAL\LA GSO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F07EA86-0C66-47CA-9E90-FB4CB6B699A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="143">
   <si>
     <t>PERIOD</t>
   </si>
@@ -471,7 +470,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -853,14 +852,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -870,9 +872,6 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1384,7 +1383,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1401,26 +1400,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K239" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A8:K239" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K240" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A8:K240"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1432,25 +1431,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1757,34 +1756,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K239"/>
+  <dimension ref="A2:K240"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A112" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A112" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="K124" sqref="K124"/>
+      <selection pane="bottomLeft" activeCell="J124" sqref="J124"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1796,16 +1795,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1814,16 +1813,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1834,18 +1833,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1853,7 +1852,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1866,24 +1865,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1918,7 +1917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1942,7 +1941,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -1964,7 +1963,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1984,7 +1983,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="49"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2010,7 +2009,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>49</v>
@@ -2032,7 +2031,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43160</v>
       </c>
@@ -2052,7 +2051,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43191</v>
       </c>
@@ -2072,7 +2071,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43221</v>
       </c>
@@ -2098,7 +2097,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>49</v>
@@ -2120,7 +2119,7 @@
         <v>43236</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43252</v>
       </c>
@@ -2146,7 +2145,7 @@
         <v>43255</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43282</v>
       </c>
@@ -2172,7 +2171,7 @@
         <v>43291</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -2194,7 +2193,7 @@
         <v>43312</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43313</v>
       </c>
@@ -2220,7 +2219,7 @@
         <v>43325</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20" t="s">
         <v>47</v>
@@ -2242,7 +2241,7 @@
         <v>43321</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43344</v>
       </c>
@@ -2268,7 +2267,7 @@
         <v>43371</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43374</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>43375</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>56</v>
@@ -2316,7 +2315,7 @@
         <v>43389</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>47</v>
@@ -2338,7 +2337,7 @@
         <v>43403</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43405</v>
       </c>
@@ -2364,7 +2363,7 @@
         <v>43410</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>47</v>
@@ -2386,7 +2385,7 @@
         <v>43418</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>49</v>
@@ -2408,7 +2407,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43435</v>
       </c>
@@ -2428,7 +2427,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>61</v>
       </c>
@@ -2446,7 +2445,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43466</v>
       </c>
@@ -2472,7 +2471,7 @@
         <v>43493</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43497</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>64</v>
@@ -2520,7 +2519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>47</v>
@@ -2542,7 +2541,7 @@
         <v>43516</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43525</v>
       </c>
@@ -2568,7 +2567,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43556</v>
       </c>
@@ -2594,7 +2593,7 @@
         <v>43578</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43586</v>
       </c>
@@ -2620,7 +2619,7 @@
         <v>43587</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>66</v>
@@ -2642,7 +2641,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20" t="s">
         <v>69</v>
@@ -2664,7 +2663,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43617</v>
       </c>
@@ -2690,7 +2689,7 @@
         <v>43629</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43647</v>
       </c>
@@ -2716,7 +2715,7 @@
         <v>43654</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43313</v>
       </c>
@@ -2742,7 +2741,7 @@
         <v>43678</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>47</v>
@@ -2764,7 +2763,7 @@
         <v>43686</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>69</v>
@@ -2786,7 +2785,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>43709</v>
       </c>
@@ -2812,7 +2811,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43739</v>
       </c>
@@ -2838,7 +2837,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>47</v>
@@ -2860,7 +2859,7 @@
         <v>43749</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>74</v>
@@ -2882,7 +2881,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43770</v>
       </c>
@@ -2902,7 +2901,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>43800</v>
       </c>
@@ -2928,7 +2927,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>45</v>
@@ -2950,7 +2949,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>78</v>
       </c>
@@ -2968,7 +2967,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>43831</v>
       </c>
@@ -2988,7 +2987,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43862</v>
       </c>
@@ -3014,7 +3013,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43891</v>
       </c>
@@ -3040,7 +3039,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>47</v>
@@ -3062,7 +3061,7 @@
         <v>43916</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>43922</v>
       </c>
@@ -3082,7 +3081,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>43952</v>
       </c>
@@ -3108,7 +3107,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43983</v>
       </c>
@@ -3134,7 +3133,7 @@
         <v>43986</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>47</v>
@@ -3156,7 +3155,7 @@
         <v>43988</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>47</v>
@@ -3178,7 +3177,7 @@
         <v>44004</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44013</v>
       </c>
@@ -3204,7 +3203,7 @@
         <v>44039</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44044</v>
       </c>
@@ -3224,7 +3223,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44075</v>
       </c>
@@ -3250,7 +3249,7 @@
         <v>44081</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>47</v>
@@ -3272,7 +3271,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>66</v>
@@ -3294,7 +3293,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44105</v>
       </c>
@@ -3320,7 +3319,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44136</v>
       </c>
@@ -3346,7 +3345,7 @@
         <v>44162</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44166</v>
       </c>
@@ -3370,7 +3369,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>66</v>
@@ -3392,7 +3391,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="48" t="s">
         <v>86</v>
       </c>
@@ -3410,7 +3409,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44197</v>
       </c>
@@ -3434,7 +3433,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44228</v>
       </c>
@@ -3460,7 +3459,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>69</v>
@@ -3482,7 +3481,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44256</v>
       </c>
@@ -3508,7 +3507,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44287</v>
       </c>
@@ -3534,7 +3533,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44317</v>
       </c>
@@ -3560,7 +3559,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44348</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="41"/>
       <c r="B80" s="15" t="s">
         <v>47</v>
@@ -3608,7 +3607,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44378</v>
       </c>
@@ -3628,7 +3627,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>44409</v>
       </c>
@@ -3648,7 +3647,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44440</v>
       </c>
@@ -3668,7 +3667,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44470</v>
       </c>
@@ -3694,7 +3693,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>56</v>
@@ -3716,7 +3715,7 @@
         <v>44526</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>45</v>
@@ -3736,7 +3735,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44501</v>
       </c>
@@ -3756,7 +3755,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44531</v>
       </c>
@@ -3776,7 +3775,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="48" t="s">
         <v>93</v>
       </c>
@@ -3794,7 +3793,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44562</v>
       </c>
@@ -3820,7 +3819,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44593</v>
       </c>
@@ -3840,7 +3839,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44621</v>
       </c>
@@ -3864,7 +3863,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44652</v>
       </c>
@@ -3888,7 +3887,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44682</v>
       </c>
@@ -3912,7 +3911,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>44713</v>
       </c>
@@ -3936,7 +3935,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44743</v>
       </c>
@@ -3962,7 +3961,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>136</v>
@@ -3982,7 +3981,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44774</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>44775</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>133</v>
@@ -4028,7 +4027,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="49"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44805</v>
       </c>
@@ -4052,7 +4051,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="49"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44835</v>
       </c>
@@ -4076,7 +4075,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="49"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44866</v>
       </c>
@@ -4100,7 +4099,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44896</v>
       </c>
@@ -4122,7 +4121,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>47</v>
@@ -4144,7 +4143,7 @@
         <v>44917</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>47</v>
@@ -4166,7 +4165,7 @@
         <v>44911</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>129</v>
@@ -4186,7 +4185,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="49"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
         <v>106</v>
       </c>
@@ -4204,7 +4203,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44927</v>
       </c>
@@ -4224,7 +4223,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="49"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44958</v>
       </c>
@@ -4250,7 +4249,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>44986</v>
       </c>
@@ -4276,7 +4275,7 @@
         <v>44998</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
         <v>45017</v>
       </c>
@@ -4302,7 +4301,7 @@
         <v>45029</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20" t="s">
         <v>47</v>
@@ -4324,7 +4323,7 @@
         <v>45034</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>45047</v>
       </c>
@@ -4344,7 +4343,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>45078</v>
       </c>
@@ -4370,7 +4369,7 @@
         <v>45107</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
         <v>45108</v>
       </c>
@@ -4390,7 +4389,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>45139</v>
       </c>
@@ -4410,7 +4409,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>45170</v>
       </c>
@@ -4436,7 +4435,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>45200</v>
       </c>
@@ -4456,7 +4455,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45231</v>
       </c>
@@ -4476,7 +4475,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45261</v>
       </c>
@@ -4502,7 +4501,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="48" t="s">
         <v>142</v>
       </c>
@@ -4520,7 +4519,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45292</v>
       </c>
@@ -4544,7 +4543,7 @@
         <v>45301</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45323</v>
       </c>
@@ -4568,11 +4567,11 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B124" s="20"/>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124" s="40"/>
+      <c r="B124" s="20" t="s">
+        <v>44</v>
+      </c>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
       <c r="E124" s="9"/>
@@ -4584,11 +4583,13 @@
       <c r="H124" s="39"/>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
-      <c r="K124" s="20"/>
-    </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K124" s="49">
+        <v>45335</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -4604,9 +4605,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -4622,9 +4623,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -4640,9 +4641,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -4658,9 +4659,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -4676,9 +4677,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -4694,9 +4695,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -4712,9 +4713,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -4730,9 +4731,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4748,9 +4749,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4766,9 +4767,9 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4784,9 +4785,9 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4802,9 +4803,9 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4820,9 +4821,9 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4838,9 +4839,9 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4856,9 +4857,9 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4874,9 +4875,9 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4892,9 +4893,9 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4910,9 +4911,9 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4928,9 +4929,9 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4946,9 +4947,9 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4964,9 +4965,9 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4982,9 +4983,9 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -5000,9 +5001,9 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -5018,9 +5019,9 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -5036,9 +5037,9 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -5054,9 +5055,9 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -5072,9 +5073,9 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -5090,9 +5091,9 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -5108,9 +5109,9 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -5126,9 +5127,9 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -5144,9 +5145,9 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -5162,9 +5163,9 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -5180,9 +5181,9 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -5198,9 +5199,9 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -5216,9 +5217,9 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -5234,9 +5235,9 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
-        <v>46478</v>
+        <v>46447</v>
       </c>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -5252,9 +5253,9 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
-        <v>46508</v>
+        <v>46478</v>
       </c>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -5270,9 +5271,9 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
-        <v>46539</v>
+        <v>46508</v>
       </c>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -5288,9 +5289,9 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
-        <v>46569</v>
+        <v>46539</v>
       </c>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -5306,9 +5307,9 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
-        <v>46600</v>
+        <v>46569</v>
       </c>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -5324,9 +5325,9 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
-        <v>46631</v>
+        <v>46600</v>
       </c>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -5342,8 +5343,10 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A167" s="40"/>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" s="40">
+        <v>46631</v>
+      </c>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
       <c r="D167" s="39"/>
@@ -5358,7 +5361,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -5374,7 +5377,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -5390,7 +5393,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -5406,7 +5409,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -5422,7 +5425,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -5438,7 +5441,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -5454,7 +5457,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -5470,7 +5473,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -5486,7 +5489,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -5502,7 +5505,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -5518,7 +5521,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -5534,7 +5537,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -5550,7 +5553,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -5566,7 +5569,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -5582,7 +5585,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -5598,7 +5601,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -5614,7 +5617,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -5630,7 +5633,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -5646,7 +5649,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -5662,7 +5665,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -5678,7 +5681,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -5694,7 +5697,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -5710,7 +5713,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -5726,7 +5729,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -5742,7 +5745,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -5758,7 +5761,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -5774,7 +5777,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -5790,7 +5793,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40"/>
       <c r="B195" s="20"/>
       <c r="C195" s="13"/>
@@ -5806,7 +5809,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20"/>
       <c r="C196" s="13"/>
@@ -5822,7 +5825,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20"/>
       <c r="C197" s="13"/>
@@ -5838,7 +5841,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20"/>
       <c r="C198" s="13"/>
@@ -5854,7 +5857,7 @@
       <c r="J198" s="11"/>
       <c r="K198" s="20"/>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40"/>
       <c r="B199" s="20"/>
       <c r="C199" s="13"/>
@@ -5870,7 +5873,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20"/>
       <c r="C200" s="13"/>
@@ -5886,7 +5889,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20"/>
       <c r="C201" s="13"/>
@@ -5902,7 +5905,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40"/>
       <c r="B202" s="20"/>
       <c r="C202" s="13"/>
@@ -5918,7 +5921,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20"/>
       <c r="C203" s="13"/>
@@ -5934,7 +5937,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20"/>
       <c r="C204" s="13"/>
@@ -5950,7 +5953,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20"/>
       <c r="C205" s="13"/>
@@ -5966,7 +5969,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20"/>
       <c r="C206" s="13"/>
@@ -5982,7 +5985,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40"/>
       <c r="B207" s="20"/>
       <c r="C207" s="13"/>
@@ -5998,7 +6001,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20"/>
       <c r="C208" s="13"/>
@@ -6014,7 +6017,7 @@
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20"/>
       <c r="C209" s="13"/>
@@ -6030,7 +6033,7 @@
       <c r="J209" s="11"/>
       <c r="K209" s="20"/>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20"/>
       <c r="C210" s="13"/>
@@ -6046,7 +6049,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40"/>
       <c r="B211" s="20"/>
       <c r="C211" s="13"/>
@@ -6062,7 +6065,7 @@
       <c r="J211" s="11"/>
       <c r="K211" s="20"/>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20"/>
       <c r="C212" s="13"/>
@@ -6078,7 +6081,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20"/>
       <c r="C213" s="13"/>
@@ -6094,7 +6097,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40"/>
       <c r="B214" s="20"/>
       <c r="C214" s="13"/>
@@ -6110,7 +6113,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40"/>
       <c r="B215" s="20"/>
       <c r="C215" s="13"/>
@@ -6126,7 +6129,7 @@
       <c r="J215" s="11"/>
       <c r="K215" s="20"/>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20"/>
       <c r="C216" s="13"/>
@@ -6142,7 +6145,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40"/>
       <c r="B217" s="20"/>
       <c r="C217" s="13"/>
@@ -6158,7 +6161,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20"/>
       <c r="C218" s="13"/>
@@ -6174,7 +6177,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40"/>
       <c r="B219" s="20"/>
       <c r="C219" s="13"/>
@@ -6190,7 +6193,7 @@
       <c r="J219" s="11"/>
       <c r="K219" s="20"/>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20"/>
       <c r="C220" s="13"/>
@@ -6206,7 +6209,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40"/>
       <c r="B221" s="20"/>
       <c r="C221" s="13"/>
@@ -6222,7 +6225,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40"/>
       <c r="B222" s="20"/>
       <c r="C222" s="13"/>
@@ -6238,7 +6241,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20"/>
       <c r="C223" s="13"/>
@@ -6254,7 +6257,7 @@
       <c r="J223" s="11"/>
       <c r="K223" s="20"/>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20"/>
       <c r="C224" s="13"/>
@@ -6270,7 +6273,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40"/>
       <c r="B225" s="20"/>
       <c r="C225" s="13"/>
@@ -6286,7 +6289,7 @@
       <c r="J225" s="11"/>
       <c r="K225" s="20"/>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20"/>
       <c r="C226" s="13"/>
@@ -6302,7 +6305,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="40"/>
       <c r="B227" s="20"/>
       <c r="C227" s="13"/>
@@ -6318,7 +6321,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40"/>
       <c r="B228" s="20"/>
       <c r="C228" s="13"/>
@@ -6334,7 +6337,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20"/>
       <c r="C229" s="13"/>
@@ -6350,7 +6353,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20"/>
       <c r="C230" s="13"/>
@@ -6366,7 +6369,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20"/>
       <c r="C231" s="13"/>
@@ -6382,7 +6385,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40"/>
       <c r="B232" s="20"/>
       <c r="C232" s="13"/>
@@ -6398,7 +6401,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20"/>
       <c r="C233" s="13"/>
@@ -6414,7 +6417,7 @@
       <c r="J233" s="11"/>
       <c r="K233" s="20"/>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20"/>
       <c r="C234" s="13"/>
@@ -6430,7 +6433,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20"/>
       <c r="C235" s="13"/>
@@ -6446,7 +6449,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40"/>
       <c r="B236" s="20"/>
       <c r="C236" s="13"/>
@@ -6462,7 +6465,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20"/>
       <c r="C237" s="13"/>
@@ -6478,7 +6481,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20"/>
       <c r="C238" s="13"/>
@@ -6494,41 +6497,57 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A239" s="41"/>
-      <c r="B239" s="15"/>
-      <c r="C239" s="42"/>
-      <c r="D239" s="43"/>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A239" s="40"/>
+      <c r="B239" s="20"/>
+      <c r="C239" s="13"/>
+      <c r="D239" s="39"/>
       <c r="E239" s="9"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="42" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H239" s="43"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="13" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H239" s="39"/>
       <c r="I239" s="9"/>
-      <c r="J239" s="12"/>
-      <c r="K239" s="15"/>
+      <c r="J239" s="11"/>
+      <c r="K239" s="20"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A240" s="41"/>
+      <c r="B240" s="15"/>
+      <c r="C240" s="42"/>
+      <c r="D240" s="43"/>
+      <c r="E240" s="9"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="42" t="str">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H240" s="43"/>
+      <c r="I240" s="9"/>
+      <c r="J240" s="12"/>
+      <c r="K240" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6551,34 +6570,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A43" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A43" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="K51" sqref="A50:K51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -6590,16 +6609,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="53"/>
-      <c r="K2" s="54"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -6608,16 +6627,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="53"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="57"/>
+      <c r="K3" s="58"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -6628,18 +6647,18 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -6647,7 +6666,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -6660,24 +6679,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="58" t="s">
+      <c r="C7" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="58"/>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58" t="s">
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="58"/>
-      <c r="I7" s="58"/>
-      <c r="J7" s="58"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -6712,7 +6731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -6736,7 +6755,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
@@ -6758,7 +6777,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -6780,7 +6799,7 @@
         <v>43122</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>44</v>
@@ -6800,7 +6819,7 @@
         <v>43129</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43132</v>
       </c>
@@ -6822,7 +6841,7 @@
         <v>43214</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43221</v>
       </c>
@@ -6844,7 +6863,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43252</v>
       </c>
@@ -6866,7 +6885,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43282</v>
       </c>
@@ -6888,7 +6907,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43313</v>
       </c>
@@ -6910,7 +6929,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43344</v>
       </c>
@@ -6932,7 +6951,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>57</v>
@@ -6952,7 +6971,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43405</v>
       </c>
@@ -6974,7 +6993,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43435</v>
       </c>
@@ -6994,7 +7013,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="48" t="s">
         <v>61</v>
       </c>
@@ -7012,7 +7031,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43466</v>
       </c>
@@ -7034,7 +7053,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43497</v>
       </c>
@@ -7056,7 +7075,7 @@
         <v>43500</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43556</v>
       </c>
@@ -7078,7 +7097,7 @@
         <v>43563</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="48" t="s">
         <v>78</v>
       </c>
@@ -7096,7 +7115,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43831</v>
       </c>
@@ -7118,7 +7137,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>44</v>
@@ -7138,7 +7157,7 @@
         <v>43859</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43862</v>
       </c>
@@ -7160,7 +7179,7 @@
         <v>43866</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>44</v>
@@ -7180,7 +7199,7 @@
         <v>43871</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="48" t="s">
         <v>86</v>
       </c>
@@ -7198,7 +7217,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>44197</v>
       </c>
@@ -7220,7 +7239,7 @@
         <v>44200</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20" t="s">
         <v>44</v>
@@ -7240,7 +7259,7 @@
         <v>44201</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>44228</v>
       </c>
@@ -7262,7 +7281,7 @@
         <v>44228</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>66</v>
@@ -7282,7 +7301,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20" t="s">
         <v>69</v>
@@ -7302,7 +7321,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>44256</v>
       </c>
@@ -7324,7 +7343,7 @@
         <v>44281</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>44287</v>
       </c>
@@ -7346,7 +7365,7 @@
         <v>44299</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>44317</v>
       </c>
@@ -7368,7 +7387,7 @@
         <v>44337</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>44348</v>
       </c>
@@ -7390,7 +7409,7 @@
         <v>44351</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="41"/>
       <c r="B41" s="15" t="s">
         <v>47</v>
@@ -7410,7 +7429,7 @@
         <v>44359</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>44409</v>
       </c>
@@ -7432,7 +7451,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44470</v>
       </c>
@@ -7456,7 +7475,7 @@
         <v>44474</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>66</v>
@@ -7478,7 +7497,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>47</v>
@@ -7498,7 +7517,7 @@
         <v>44494</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="48" t="s">
         <v>93</v>
       </c>
@@ -7516,7 +7535,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44562</v>
       </c>
@@ -7538,7 +7557,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>56</v>
@@ -7560,7 +7579,7 @@
         <v>44587</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
         <v>44593</v>
       </c>
@@ -7584,7 +7603,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>44</v>
@@ -7604,7 +7623,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>44</v>
@@ -7624,7 +7643,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>47</v>
@@ -7646,7 +7665,7 @@
         <v>44753</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44743</v>
       </c>
@@ -7670,7 +7689,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44774</v>
       </c>
@@ -7694,7 +7713,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44805</v>
       </c>
@@ -7718,7 +7737,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44835</v>
       </c>
@@ -7742,7 +7761,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>101</v>
@@ -7766,7 +7785,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>130</v>
@@ -7784,7 +7803,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="49"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44866</v>
       </c>
@@ -7808,7 +7827,7 @@
         <v>44867</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20" t="s">
         <v>45</v>
@@ -7830,7 +7849,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>104</v>
@@ -7852,7 +7871,7 @@
         <v>44886</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>104</v>
@@ -7874,7 +7893,7 @@
         <v>44893</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44896</v>
       </c>
@@ -7898,7 +7917,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20" t="s">
         <v>104</v>
@@ -7916,7 +7935,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="48" t="s">
         <v>106</v>
       </c>
@@ -7934,7 +7953,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44927</v>
       </c>
@@ -7956,7 +7975,7 @@
         <v>44929</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20" t="s">
         <v>44</v>
@@ -7976,7 +7995,7 @@
         <v>44938</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44958</v>
       </c>
@@ -7998,7 +8017,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>47</v>
@@ -8016,7 +8035,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44986</v>
       </c>
@@ -8040,7 +8059,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>45</v>
@@ -8062,7 +8081,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>45017</v>
       </c>
@@ -8086,7 +8105,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>56</v>
@@ -8108,7 +8127,7 @@
         <v>45041</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>45047</v>
       </c>
@@ -8132,7 +8151,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40"/>
       <c r="B75" s="20" t="s">
         <v>45</v>
@@ -8154,7 +8173,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>45078</v>
       </c>
@@ -8178,7 +8197,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>45</v>
@@ -8200,7 +8219,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>45103</v>
       </c>
@@ -8224,7 +8243,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>45108</v>
       </c>
@@ -8248,7 +8267,7 @@
         <v>45124</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>56</v>
@@ -8270,7 +8289,7 @@
         <v>45128</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>45</v>
@@ -8292,7 +8311,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40">
         <v>45139</v>
       </c>
@@ -8316,7 +8335,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>45170</v>
       </c>
@@ -8340,7 +8359,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>45</v>
@@ -8362,7 +8381,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>45200</v>
       </c>
@@ -8386,7 +8405,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20" t="s">
         <v>124</v>
@@ -8408,7 +8427,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>45</v>
@@ -8430,7 +8449,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>45231</v>
       </c>
@@ -8454,7 +8473,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -8470,7 +8489,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -8486,7 +8505,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -8502,7 +8521,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -8518,7 +8537,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -8534,7 +8553,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -8550,7 +8569,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -8566,7 +8585,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -8582,7 +8601,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -8598,7 +8617,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -8614,7 +8633,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -8630,7 +8649,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -8646,7 +8665,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -8662,7 +8681,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -8678,7 +8697,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -8694,7 +8713,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -8710,7 +8729,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -8726,7 +8745,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -8742,7 +8761,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -8758,7 +8777,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -8774,7 +8793,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -8790,7 +8809,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -8806,7 +8825,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -8822,7 +8841,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -8838,7 +8857,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -8854,7 +8873,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -8870,7 +8889,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -8886,7 +8905,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -8902,7 +8921,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -8918,7 +8937,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -8934,7 +8953,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -8950,7 +8969,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -8966,7 +8985,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -8982,7 +9001,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -8998,7 +9017,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -9014,7 +9033,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -9030,7 +9049,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -9046,7 +9065,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -9062,7 +9081,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -9078,7 +9097,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -9094,7 +9113,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40"/>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -9110,7 +9129,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40"/>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -9126,7 +9145,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -9142,7 +9161,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40"/>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -9158,7 +9177,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -9174,7 +9193,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -9190,7 +9209,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -9206,7 +9225,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -9222,7 +9241,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -9238,7 +9257,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -9254,7 +9273,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -9270,7 +9289,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -9286,7 +9305,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -9302,7 +9321,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -9318,7 +9337,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -9334,7 +9353,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -9350,7 +9369,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -9366,7 +9385,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -9382,7 +9401,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -9398,7 +9417,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -9414,7 +9433,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -9430,7 +9449,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -9446,7 +9465,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40"/>
       <c r="B151" s="20"/>
       <c r="C151" s="13"/>
@@ -9462,7 +9481,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20"/>
       <c r="C152" s="13"/>
@@ -9478,7 +9497,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20"/>
       <c r="C153" s="13"/>
@@ -9494,7 +9513,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40"/>
       <c r="B154" s="20"/>
       <c r="C154" s="13"/>
@@ -9510,7 +9529,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20"/>
       <c r="C155" s="13"/>
@@ -9526,7 +9545,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20"/>
       <c r="C156" s="13"/>
@@ -9542,7 +9561,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20"/>
       <c r="C157" s="13"/>
@@ -9558,7 +9577,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40"/>
       <c r="B158" s="20"/>
       <c r="C158" s="13"/>
@@ -9574,7 +9593,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20"/>
       <c r="C159" s="13"/>
@@ -9590,7 +9609,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20"/>
       <c r="C160" s="13"/>
@@ -9606,7 +9625,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40"/>
       <c r="B161" s="20"/>
       <c r="C161" s="13"/>
@@ -9622,7 +9641,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20"/>
       <c r="C162" s="13"/>
@@ -9638,7 +9657,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20"/>
       <c r="C163" s="13"/>
@@ -9654,7 +9673,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40"/>
       <c r="B164" s="20"/>
       <c r="C164" s="13"/>
@@ -9670,7 +9689,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20"/>
       <c r="C165" s="13"/>
@@ -9686,7 +9705,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20"/>
       <c r="C166" s="13"/>
@@ -9702,7 +9721,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20"/>
       <c r="C167" s="13"/>
@@ -9718,7 +9737,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40"/>
       <c r="B168" s="20"/>
       <c r="C168" s="13"/>
@@ -9734,7 +9753,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20"/>
       <c r="C169" s="13"/>
@@ -9750,7 +9769,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40"/>
       <c r="B170" s="20"/>
       <c r="C170" s="13"/>
@@ -9766,7 +9785,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40"/>
       <c r="B171" s="20"/>
       <c r="C171" s="13"/>
@@ -9782,7 +9801,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20"/>
       <c r="C172" s="13"/>
@@ -9798,7 +9817,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20"/>
       <c r="C173" s="13"/>
@@ -9814,7 +9833,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20"/>
       <c r="C174" s="13"/>
@@ -9830,7 +9849,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20"/>
       <c r="C175" s="13"/>
@@ -9846,7 +9865,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40"/>
       <c r="B176" s="20"/>
       <c r="C176" s="13"/>
@@ -9862,7 +9881,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40"/>
       <c r="B177" s="20"/>
       <c r="C177" s="13"/>
@@ -9878,7 +9897,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20"/>
       <c r="C178" s="13"/>
@@ -9894,7 +9913,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40"/>
       <c r="B179" s="20"/>
       <c r="C179" s="13"/>
@@ -9910,7 +9929,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40"/>
       <c r="B180" s="20"/>
       <c r="C180" s="13"/>
@@ -9926,7 +9945,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20"/>
       <c r="C181" s="13"/>
@@ -9942,7 +9961,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20"/>
       <c r="C182" s="13"/>
@@ -9958,7 +9977,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40"/>
       <c r="B183" s="20"/>
       <c r="C183" s="13"/>
@@ -9974,7 +9993,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20"/>
       <c r="C184" s="13"/>
@@ -9990,7 +10009,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40"/>
       <c r="B185" s="20"/>
       <c r="C185" s="13"/>
@@ -10006,7 +10025,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -10022,7 +10041,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -10038,7 +10057,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -10054,7 +10073,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -10070,7 +10089,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -10086,7 +10105,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -10102,7 +10121,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -10118,7 +10137,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -10134,7 +10153,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -10150,7 +10169,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -10181,10 +10200,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -10207,28 +10226,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
@@ -10241,7 +10260,7 @@
       <c r="K1" s="60"/>
       <c r="L1" s="60"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -10270,7 +10289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>107.80500000000001</v>
       </c>
@@ -10298,17 +10317,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -10329,7 +10348,7 @@
       <c r="K6" s="61"/>
       <c r="L6" s="61"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -10356,7 +10375,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -10382,7 +10401,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -10408,7 +10427,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -10434,7 +10453,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -10460,7 +10479,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -10486,7 +10505,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -10512,7 +10531,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -10538,7 +10557,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -10558,7 +10577,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -10578,7 +10597,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -10598,7 +10617,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -10619,7 +10638,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -10640,7 +10659,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -10661,7 +10680,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -10682,7 +10701,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -10703,7 +10722,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -10724,7 +10743,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -10745,7 +10764,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -10766,7 +10785,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -10787,7 +10806,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -10808,7 +10827,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -10829,7 +10848,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -10850,7 +10869,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -10871,7 +10890,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -10892,7 +10911,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -10913,7 +10932,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -10934,7 +10953,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -10955,7 +10974,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -10976,7 +10995,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -10997,7 +11016,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -11018,7 +11037,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -11027,7 +11046,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -11036,7 +11055,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -11045,7 +11064,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -11054,7 +11073,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -11063,7 +11082,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -11072,7 +11091,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -11081,7 +11100,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -11090,7 +11109,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -11099,7 +11118,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -11108,7 +11127,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -11117,7 +11136,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -11126,7 +11145,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -11135,7 +11154,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -11144,7 +11163,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -11153,7 +11172,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -11162,7 +11181,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -11171,7 +11190,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -11180,7 +11199,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -11189,7 +11208,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -11198,7 +11217,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -11207,7 +11226,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -11216,7 +11235,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -11225,7 +11244,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -11234,7 +11253,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -11243,7 +11262,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -11252,7 +11271,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -11261,7 +11280,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -11270,7 +11289,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -11279,7 +11298,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
